--- a/CI-DB-EXCEL/storytbl.xlsx
+++ b/CI-DB-EXCEL/storytbl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trusha\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trusha\OneDrive\Desktop\TATVASOFT\CI-DB-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -372,6 +372,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
